--- a/SLA Supply Track 2022.xlsx
+++ b/SLA Supply Track 2022.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Science Admin\Desktop\Formlabs tank tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yassine\Desktop\Resin_managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EE3907-5CCB-4B12-92E4-DC8E108B7104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking sheet" sheetId="13" r:id="rId1"/>
@@ -27,17 +28,28 @@
     <definedName name="Version">Parameters!$H$2:$H$11</definedName>
     <definedName name="YesNo">Parameters!$I$2:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="153">
   <si>
     <t>Form 3</t>
   </si>
@@ -172,9 +184,6 @@
   </si>
   <si>
     <t>Opened date</t>
-  </si>
-  <si>
-    <t>Actually less is left</t>
   </si>
   <si>
     <t>2019-?-?</t>
@@ -507,15 +516,54 @@
   <si>
     <t>Emptied to 54</t>
   </si>
+  <si>
+    <t>form 3 v2</t>
+  </si>
+  <si>
+    <t>detached from platform</t>
+  </si>
+  <si>
+    <t>Tank OK</t>
+  </si>
+  <si>
+    <t>Old resin discarded 2022-08-09</t>
+  </si>
+  <si>
+    <t>Print surface problems, changed</t>
+  </si>
+  <si>
+    <t>Fairly big scratch on side optical window</t>
+  </si>
+  <si>
+    <t>Emptied to 3</t>
+  </si>
+  <si>
+    <t>Gunked with particulates</t>
+  </si>
+  <si>
+    <t>Emptied to tank 22-Clear</t>
+  </si>
+  <si>
+    <t>Emptied to 59</t>
+  </si>
+  <si>
+    <t>Emptied to 4</t>
+  </si>
+  <si>
+    <t>Seems like two cartridges labeled 4!</t>
+  </si>
+  <si>
+    <t>one of the front-wiper side edge parts was missing some layers in 500+ range, sanded platform, examined tank - no issues? Dust specs on optics, due for routine maintenance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,6 +637,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -624,8 +678,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,7 +916,9 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{8DC7C9EC-F277-4121-98BB-6BF7452EF21A}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1136,17 +1192,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ248"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H249" sqref="H249"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
@@ -1203,10 +1260,10 @@
         <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>34</v>
@@ -1266,13 +1323,13 @@
         <v>41</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
@@ -1298,7 +1355,13 @@
         <v>24.41</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>7</v>
       </c>
       <c r="O2" t="s">
         <v>3</v>
@@ -1307,18 +1370,17 @@
         <v>2</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q37" si="0">SUMIFS(H:H,C:C,O2,D:D,P2,E:E,N2)</f>
-        <v>0</v>
-      </c>
-      <c r="R2" t="str">
-        <f>IF(Q2&gt;=950*VLOOKUP(O2,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
-        <v>Cartridge OK</v>
+        <f t="shared" ref="Q2:Q47" si="0">SUMIFS(H:H,C:C,O2,D:D,P2,E:E,N2)</f>
+        <v>645.3599999999999</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
       </c>
       <c r="S2" s="4">
         <v>43201</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="V2">
         <v>1</v>
@@ -1333,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="Z2">
-        <f t="shared" ref="Z2:Z10" si="1">SUMIFS(H:H,G:G,V2,F:F,W2,C:C,X2,D:D,Y2,I:I,"No")</f>
+        <f t="shared" ref="Z2:Z19" si="1">SUMIFS(H:H,G:G,V2,F:F,W2,C:C,X2,D:D,Y2,I:I,"No")</f>
         <v>139.47999999999999</v>
       </c>
       <c r="AA2" t="str">
@@ -1341,24 +1403,24 @@
         <v>Tank OK</v>
       </c>
       <c r="AB2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF2" t="s">
         <v>2</v>
       </c>
       <c r="AG2">
         <f t="shared" ref="AG2:AG11" si="2">SUMIFS(M:M,O:O,AF2,R:R,"Cartridge OK")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH11" si="3">SUMIFS(M:M,O:O,AF2,R:R,"Cartridge OK", Q:Q,0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI2">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="AJ2">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
@@ -1400,7 +1462,7 @@
       </c>
       <c r="Q3">
         <f t="shared" si="0"/>
-        <v>23.73</v>
+        <v>619.72</v>
       </c>
       <c r="R3" t="str">
         <f>IF(Q3&gt;=950*VLOOKUP(O3,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
@@ -1430,7 +1492,7 @@
         <v>Tank OK</v>
       </c>
       <c r="AB3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF3" t="s">
         <v>3</v>
@@ -1447,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="AJ3">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
@@ -1496,10 +1558,10 @@
         <v>Cartridge OK</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W4" t="s">
         <v>13</v>
@@ -1512,7 +1574,7 @@
       </c>
       <c r="Z4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>610.04000000000008</v>
       </c>
       <c r="AA4" t="str">
         <f>IF(Z4&gt;=1000*VLOOKUP(W4,Parameters!D:E,2,FALSE),"Replace Tank","Tank OK")</f>
@@ -1588,7 +1650,7 @@
         <v>43354</v>
       </c>
       <c r="T5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V5">
         <v>8</v>
@@ -1680,7 +1742,7 @@
         <v>43354</v>
       </c>
       <c r="T6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V6">
         <v>15</v>
@@ -1696,11 +1758,10 @@
       </c>
       <c r="Z6">
         <f t="shared" si="1"/>
-        <v>537.5</v>
-      </c>
-      <c r="AA6" t="str">
-        <f>IF(Z6&gt;=1000*VLOOKUP(W6,Parameters!D:E,2,FALSE),"Replace Tank","Tank OK")</f>
-        <v>Tank OK</v>
+        <v>655.23</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>38</v>
       </c>
       <c r="AB6" s="4">
         <v>44418</v>
@@ -1717,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ6">
         <v>2</v>
@@ -1785,14 +1846,16 @@
       </c>
       <c r="Z7">
         <f t="shared" si="1"/>
-        <v>1430.73</v>
-      </c>
-      <c r="AA7" t="str">
-        <f>IF(Z7&gt;=1000*VLOOKUP(W7,Parameters!D:E,2,FALSE),"Replace Tank","Tank OK")</f>
-        <v>Tank OK</v>
+        <v>2120.7300000000005</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>38</v>
       </c>
       <c r="AB7" s="4">
         <v>44545</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>145</v>
       </c>
       <c r="AF7" t="s">
         <v>7</v>
@@ -1861,7 +1924,7 @@
         <v>43950</v>
       </c>
       <c r="T8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V8">
         <v>3</v>
@@ -1953,7 +2016,7 @@
         <v>43950</v>
       </c>
       <c r="T9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V9">
         <v>20</v>
@@ -1969,7 +2032,7 @@
       </c>
       <c r="Z9">
         <f t="shared" si="1"/>
-        <v>3951.3100000000004</v>
+        <v>4056.1400000000003</v>
       </c>
       <c r="AA9" t="str">
         <f>IF(Z9&gt;=1000*VLOOKUP(W9,Parameters!D:E,2,FALSE),"Replace Tank","Tank OK")</f>
@@ -2058,14 +2121,16 @@
       </c>
       <c r="Z10">
         <f t="shared" si="1"/>
-        <v>2294.440000000001</v>
-      </c>
-      <c r="AA10" t="str">
-        <f>IF(Z10&gt;=1000*VLOOKUP(W10,Parameters!D:E,2,FALSE),"Replace Tank","Tank OK")</f>
-        <v>Tank OK</v>
+        <v>3828.6600000000021</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>38</v>
       </c>
       <c r="AB10" s="4">
         <v>44721</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>147</v>
       </c>
       <c r="AF10" t="s">
         <v>10</v>
@@ -2133,6 +2198,31 @@
       <c r="S11" s="4">
         <v>43894</v>
       </c>
+      <c r="V11">
+        <v>16</v>
+      </c>
+      <c r="W11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="1"/>
+        <v>59.86</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>44782</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>144</v>
+      </c>
       <c r="AF11" t="s">
         <v>18</v>
       </c>
@@ -2142,13 +2232,13 @@
       </c>
       <c r="AH11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
@@ -2199,6 +2289,28 @@
       <c r="S12" s="4">
         <v>43354</v>
       </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="W12" t="s">
+        <v>13</v>
+      </c>
+      <c r="X12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="1"/>
+        <v>2683.0899999999992</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>44802</v>
+      </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -2248,6 +2360,28 @@
       <c r="S13" s="4">
         <v>43354</v>
       </c>
+      <c r="V13">
+        <v>17</v>
+      </c>
+      <c r="W13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="1"/>
+        <v>197.4</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>44811</v>
+      </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -2297,7 +2431,29 @@
         <v>44281</v>
       </c>
       <c r="T14" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="V14">
+        <v>21</v>
+      </c>
+      <c r="W14" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <v>4</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="1"/>
+        <v>85.89</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>44816</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
@@ -2342,14 +2498,38 @@
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
-        <v>849.54000000000008</v>
-      </c>
-      <c r="R15" t="str">
-        <f>IF(Q15&gt;=950*VLOOKUP(O15,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
-        <v>Cartridge OK</v>
+        <v>1052.5900000000001</v>
+      </c>
+      <c r="R15" t="s">
+        <v>38</v>
       </c>
       <c r="S15" s="4">
         <v>44319</v>
+      </c>
+      <c r="T15" t="s">
+        <v>146</v>
+      </c>
+      <c r="V15">
+        <v>22</v>
+      </c>
+      <c r="W15" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <v>4</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>117.62</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>44820</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
@@ -2403,10 +2583,32 @@
         <v>44432</v>
       </c>
       <c r="T16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="V16">
+        <v>13</v>
+      </c>
+      <c r="W16" t="s">
+        <v>14</v>
+      </c>
+      <c r="X16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="1"/>
+        <v>83.37</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>44036</v>
       </c>
@@ -2457,10 +2659,32 @@
         <v>44432</v>
       </c>
       <c r="T17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17" t="s">
+        <v>11</v>
+      </c>
+      <c r="X17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="1"/>
+        <v>115.69</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44040</v>
       </c>
@@ -2511,10 +2735,32 @@
         <v>44432</v>
       </c>
       <c r="T18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="V18">
+        <v>7</v>
+      </c>
+      <c r="W18" t="s">
+        <v>11</v>
+      </c>
+      <c r="X18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="1"/>
+        <v>240.20999999999998</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>44041</v>
       </c>
@@ -2565,10 +2811,32 @@
         <v>44432</v>
       </c>
       <c r="T19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="V19">
+        <v>18</v>
+      </c>
+      <c r="W19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>2</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="1"/>
+        <v>82.57</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>44063</v>
       </c>
@@ -2619,10 +2887,32 @@
         <v>44432</v>
       </c>
       <c r="T20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="V20">
+        <v>19</v>
+      </c>
+      <c r="W20" t="s">
+        <v>12</v>
+      </c>
+      <c r="X20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20">
+        <v>2</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" ref="Z20:Z24" si="4">SUMIFS(H:H,G:G,V20,F:F,W20,C:C,X20,D:D,Y20,I:I,"No")</f>
+        <v>197.84</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44065</v>
       </c>
@@ -2673,15 +2963,37 @@
         <v>44432</v>
       </c>
       <c r="T21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="V21">
+        <v>14</v>
+      </c>
+      <c r="W21" t="s">
+        <v>11</v>
+      </c>
+      <c r="X21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21">
+        <v>2</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="4"/>
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>44068</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -2727,10 +3039,32 @@
         <v>44432</v>
       </c>
       <c r="T22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="V22">
+        <v>13</v>
+      </c>
+      <c r="W22" t="s">
+        <v>12</v>
+      </c>
+      <c r="X22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <v>4</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="4"/>
+        <v>81.77</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>44077</v>
       </c>
@@ -2781,10 +3115,32 @@
         <v>44432</v>
       </c>
       <c r="T23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="V23">
+        <v>19</v>
+      </c>
+      <c r="W23" t="s">
+        <v>13</v>
+      </c>
+      <c r="X23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <v>4</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="4"/>
+        <v>2086.61</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44154</v>
       </c>
@@ -2813,7 +3169,7 @@
         <v>20</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -2838,10 +3194,32 @@
         <v>44432</v>
       </c>
       <c r="T24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="4"/>
+        <v>275.27999999999997</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>44155</v>
       </c>
@@ -2892,10 +3270,32 @@
         <v>44432</v>
       </c>
       <c r="T25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="V25">
+        <v>22</v>
+      </c>
+      <c r="W25" t="s">
+        <v>12</v>
+      </c>
+      <c r="X25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y25">
+        <v>4</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" ref="Z25" si="5">SUMIFS(H:H,G:G,V25,F:F,W25,C:C,X25,D:D,Y25,I:I,"No")</f>
+        <v>27.67</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>44177</v>
       </c>
@@ -2921,7 +3321,7 @@
         <v>36.71</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2946,10 +3346,10 @@
         <v>44432</v>
       </c>
       <c r="T26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>44236</v>
       </c>
@@ -2975,7 +3375,7 @@
         <v>6.11</v>
       </c>
       <c r="I27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -3000,10 +3400,10 @@
         <v>44658</v>
       </c>
       <c r="T27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>44251</v>
       </c>
@@ -3029,7 +3429,7 @@
         <v>260</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -3045,7 +3445,7 @@
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>353.76000000000005</v>
       </c>
       <c r="R28" t="str">
         <f>IF(Q28&gt;=950*VLOOKUP(O28,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
@@ -3055,7 +3455,7 @@
         <v>44658</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44251</v>
       </c>
@@ -3081,15 +3481,15 @@
         <v>49.12</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="8">
         <v>55</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P29">
@@ -3097,17 +3497,19 @@
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
-        <v>323.19</v>
-      </c>
-      <c r="R29" t="str">
-        <f>IF(Q29&gt;=950*VLOOKUP(O29,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
-        <v>Cartridge OK</v>
+        <v>1343.0899999999997</v>
+      </c>
+      <c r="R29" t="s">
+        <v>38</v>
       </c>
       <c r="S29" s="4">
         <v>44658</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>44259</v>
       </c>
@@ -3133,15 +3535,15 @@
         <v>49.43</v>
       </c>
       <c r="I30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="8">
         <v>52</v>
       </c>
-      <c r="O30" s="10" t="s">
+      <c r="O30" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P30">
@@ -3151,15 +3553,17 @@
         <f t="shared" si="0"/>
         <v>632.37999999999988</v>
       </c>
-      <c r="R30" t="str">
-        <f>IF(Q30&gt;=950*VLOOKUP(O30,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
-        <v>Cartridge OK</v>
+      <c r="R30" t="s">
+        <v>38</v>
       </c>
       <c r="S30" s="4">
         <v>44658</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>44265</v>
       </c>
@@ -3185,13 +3589,13 @@
         <v>82.57</v>
       </c>
       <c r="I31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -3216,10 +3620,10 @@
         <v>44658</v>
       </c>
       <c r="T31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>44274</v>
       </c>
@@ -3245,15 +3649,15 @@
         <v>100</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="8">
         <v>54</v>
       </c>
-      <c r="O32" s="10" t="s">
+      <c r="O32" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P32">
@@ -3261,17 +3665,19 @@
       </c>
       <c r="Q32">
         <f t="shared" si="0"/>
-        <v>124.91</v>
-      </c>
-      <c r="R32" t="str">
-        <f>IF(Q32&gt;=950*VLOOKUP(O32,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
-        <v>Cartridge OK</v>
+        <v>724.9</v>
+      </c>
+      <c r="R32" t="s">
+        <v>38</v>
       </c>
       <c r="S32" s="4">
         <v>44658</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>44274</v>
       </c>
@@ -3297,15 +3703,15 @@
         <v>85.42</v>
       </c>
       <c r="I33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33" s="8">
         <v>56</v>
       </c>
-      <c r="O33" s="10" t="s">
+      <c r="O33" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P33">
@@ -3313,17 +3719,19 @@
       </c>
       <c r="Q33">
         <f t="shared" si="0"/>
-        <v>146.63999999999999</v>
-      </c>
-      <c r="R33" t="str">
-        <f>IF(Q33&gt;=950*VLOOKUP(O33,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
-        <v>Cartridge OK</v>
+        <v>226.68</v>
+      </c>
+      <c r="R33" t="s">
+        <v>38</v>
       </c>
       <c r="S33" s="4">
         <v>44658</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44286</v>
       </c>
@@ -3349,15 +3757,15 @@
         <v>82.57</v>
       </c>
       <c r="I34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="8">
         <v>57</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P34">
@@ -3365,17 +3773,19 @@
       </c>
       <c r="Q34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R34" t="str">
-        <f>IF(Q34&gt;=950*VLOOKUP(O34,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
-        <v>Cartridge OK</v>
+        <v>388.92</v>
+      </c>
+      <c r="R34" t="s">
+        <v>38</v>
       </c>
       <c r="S34" s="4">
         <v>44658</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>44300</v>
       </c>
@@ -3401,7 +3811,7 @@
         <v>49.43</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -3417,7 +3827,7 @@
       </c>
       <c r="Q35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>117.62</v>
       </c>
       <c r="R35" t="str">
         <f>IF(Q35&gt;=950*VLOOKUP(O35,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
@@ -3427,7 +3837,7 @@
         <v>44658</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>44342</v>
       </c>
@@ -3453,7 +3863,7 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -3479,7 +3889,7 @@
         <v>44658</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>44350</v>
       </c>
@@ -3505,21 +3915,21 @@
         <v>29.85</v>
       </c>
       <c r="I37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="8">
         <v>3</v>
       </c>
-      <c r="O37" s="10" t="s">
+      <c r="O37" s="8" t="s">
         <v>18</v>
       </c>
       <c r="P37">
@@ -3527,17 +3937,19 @@
       </c>
       <c r="Q37">
         <f t="shared" si="0"/>
-        <v>72.23</v>
-      </c>
-      <c r="R37" t="str">
-        <f>IF(Q37&gt;=950*VLOOKUP(O37,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
-        <v>Cartridge OK</v>
+        <v>884.39</v>
+      </c>
+      <c r="R37" t="s">
+        <v>38</v>
       </c>
       <c r="S37" s="4">
         <v>44658</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44354</v>
       </c>
@@ -3563,13 +3975,39 @@
         <v>51.5</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" s="10">
+        <v>4</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>1521.34</v>
+      </c>
+      <c r="R38" t="str">
+        <f>IF(Q38&gt;=950*VLOOKUP(O38,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
+        <v>Replace Cartridge</v>
+      </c>
+      <c r="S38" s="4">
+        <v>44700</v>
+      </c>
+      <c r="T38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>44357</v>
       </c>
@@ -3595,13 +4033,36 @@
         <v>40.729999999999997</v>
       </c>
       <c r="I39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" s="10">
+        <v>5</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="0"/>
+        <v>609.59000000000015</v>
+      </c>
+      <c r="R39" t="str">
+        <f>IF(Q39&gt;=950*VLOOKUP(O39,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
+        <v>Cartridge OK</v>
+      </c>
+      <c r="S39" s="4">
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>44363</v>
       </c>
@@ -3627,10 +4088,33 @@
         <v>51.5</v>
       </c>
       <c r="I40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" s="10">
+        <v>6</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R40" t="str">
+        <f>IF(Q40&gt;=950*VLOOKUP(O40,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
+        <v>Cartridge OK</v>
+      </c>
+      <c r="S40" s="4">
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44368</v>
       </c>
@@ -3656,10 +4140,33 @@
         <v>51.5</v>
       </c>
       <c r="I41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" s="10">
+        <v>61</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41" t="str">
+        <f>IF(Q41&gt;=950*VLOOKUP(O41,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
+        <v>Cartridge OK</v>
+      </c>
+      <c r="S41" s="4">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>44418</v>
       </c>
@@ -3685,10 +4192,33 @@
         <v>39.11</v>
       </c>
       <c r="I42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" s="10">
+        <v>62</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>4</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R42" t="str">
+        <f>IF(Q42&gt;=950*VLOOKUP(O42,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
+        <v>Cartridge OK</v>
+      </c>
+      <c r="S42" s="4">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>44426</v>
       </c>
@@ -3714,10 +4244,33 @@
         <v>44.21</v>
       </c>
       <c r="I43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" s="10">
+        <v>63</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>4</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R43" t="str">
+        <f>IF(Q43&gt;=950*VLOOKUP(O43,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
+        <v>Cartridge OK</v>
+      </c>
+      <c r="S43" s="4">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>44428</v>
       </c>
@@ -3743,15 +4296,38 @@
         <v>39.11</v>
       </c>
       <c r="I44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44" s="10">
+        <v>64</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P44">
+        <v>4</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R44" t="str">
+        <f>IF(Q44&gt;=950*VLOOKUP(O44,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
+        <v>Cartridge OK</v>
+      </c>
+      <c r="S44" s="4">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44462</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
@@ -3772,10 +4348,33 @@
         <v>51.5</v>
       </c>
       <c r="I45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" s="10">
+        <v>65</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>4</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R45" t="str">
+        <f>IF(Q45&gt;=950*VLOOKUP(O45,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
+        <v>Cartridge OK</v>
+      </c>
+      <c r="S45" s="4">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44463</v>
       </c>
@@ -3801,10 +4400,33 @@
         <v>38.47</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>66</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>4</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R46" t="str">
+        <f>IF(Q46&gt;=950*VLOOKUP(O46,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
+        <v>Cartridge OK</v>
+      </c>
+      <c r="S46" s="4">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>44470</v>
       </c>
@@ -3830,13 +4452,36 @@
         <v>35.75</v>
       </c>
       <c r="I47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47" s="10">
+        <v>67</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>4</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R47" t="str">
+        <f>IF(Q47&gt;=950*VLOOKUP(O47,Parameters!B:C,2,FALSE), "Replace Cartridge", "Cartridge OK")</f>
+        <v>Cartridge OK</v>
+      </c>
+      <c r="S47" s="4">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>44482</v>
       </c>
@@ -3862,7 +4507,7 @@
         <v>46.08</v>
       </c>
       <c r="I48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3891,7 +4536,7 @@
         <v>2.71</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -3920,7 +4565,7 @@
         <v>2.79</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -3949,7 +4594,7 @@
         <v>82.3</v>
       </c>
       <c r="I51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3978,13 +4623,13 @@
         <v>81.77</v>
       </c>
       <c r="I52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -4013,7 +4658,7 @@
         <v>79.14</v>
       </c>
       <c r="I53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -4042,7 +4687,7 @@
         <v>82.9</v>
       </c>
       <c r="I54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -4071,7 +4716,7 @@
         <v>100.49</v>
       </c>
       <c r="I55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -4100,7 +4745,7 @@
         <v>111.07</v>
       </c>
       <c r="I56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -4155,7 +4800,7 @@
         <v>100.49</v>
       </c>
       <c r="I58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -4340,7 +4985,7 @@
         <v>132.9</v>
       </c>
       <c r="I65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -4447,7 +5092,7 @@
         <v>54.25</v>
       </c>
       <c r="I69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -4476,7 +5121,7 @@
         <v>80.3</v>
       </c>
       <c r="I70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -4505,7 +5150,7 @@
         <v>92.12</v>
       </c>
       <c r="I71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -4534,7 +5179,7 @@
         <v>3.39</v>
       </c>
       <c r="I72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -4563,7 +5208,7 @@
         <v>79.33</v>
       </c>
       <c r="I73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -4592,10 +5237,10 @@
         <v>40</v>
       </c>
       <c r="I74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4624,10 +5269,10 @@
         <v>124.79</v>
       </c>
       <c r="I75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4656,10 +5301,10 @@
         <v>124.79</v>
       </c>
       <c r="I76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -4688,10 +5333,10 @@
         <v>47.02</v>
       </c>
       <c r="I77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -4720,7 +5365,7 @@
         <v>93.78</v>
       </c>
       <c r="I78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -4749,10 +5394,10 @@
         <v>91.08</v>
       </c>
       <c r="I79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -4781,7 +5426,7 @@
         <v>69</v>
       </c>
       <c r="I80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4810,7 +5455,7 @@
         <v>125.51</v>
       </c>
       <c r="I81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4839,7 +5484,7 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="I82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -4868,7 +5513,7 @@
         <v>34</v>
       </c>
       <c r="I83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -4897,7 +5542,7 @@
         <v>80.77</v>
       </c>
       <c r="I84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -4926,7 +5571,7 @@
         <v>32.56</v>
       </c>
       <c r="I85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -4955,7 +5600,7 @@
         <v>67.94</v>
       </c>
       <c r="I86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -4984,7 +5629,7 @@
         <v>125.9</v>
       </c>
       <c r="I87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -5013,7 +5658,7 @@
         <v>89.78</v>
       </c>
       <c r="I88" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -5042,10 +5687,10 @@
         <v>260</v>
       </c>
       <c r="I89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -5074,13 +5719,13 @@
         <v>40.85</v>
       </c>
       <c r="I90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -5109,7 +5754,7 @@
         <v>25.52</v>
       </c>
       <c r="I91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -5138,7 +5783,7 @@
         <v>97.03</v>
       </c>
       <c r="I92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -5167,7 +5812,7 @@
         <v>48.31</v>
       </c>
       <c r="I93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -5196,7 +5841,7 @@
         <v>147.84</v>
       </c>
       <c r="I94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -5225,7 +5870,7 @@
         <v>39.11</v>
       </c>
       <c r="I95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -5254,7 +5899,7 @@
         <v>88.02</v>
       </c>
       <c r="I96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
@@ -5283,7 +5928,7 @@
         <v>57.79</v>
       </c>
       <c r="I97" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
@@ -5312,7 +5957,7 @@
         <v>88.98</v>
       </c>
       <c r="I98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
@@ -5341,7 +5986,7 @@
         <v>57.61</v>
       </c>
       <c r="I99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
@@ -5370,7 +6015,7 @@
         <v>35.64</v>
       </c>
       <c r="I100" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
@@ -5399,7 +6044,7 @@
         <v>120.43</v>
       </c>
       <c r="I101" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
@@ -5428,7 +6073,7 @@
         <v>39.4</v>
       </c>
       <c r="I102" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
@@ -5457,7 +6102,7 @@
         <v>98.54</v>
       </c>
       <c r="I103" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.3">
@@ -5486,7 +6131,7 @@
         <v>20.95</v>
       </c>
       <c r="I104" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
@@ -5515,7 +6160,7 @@
         <v>89.77</v>
       </c>
       <c r="I105" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
@@ -5544,7 +6189,7 @@
         <v>133</v>
       </c>
       <c r="I106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
@@ -5573,7 +6218,7 @@
         <v>50.5</v>
       </c>
       <c r="I107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
@@ -5602,7 +6247,7 @@
         <v>9.65</v>
       </c>
       <c r="I108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
@@ -5631,7 +6276,7 @@
         <v>125.28</v>
       </c>
       <c r="I109" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
@@ -5660,7 +6305,7 @@
         <v>25.03</v>
       </c>
       <c r="I110" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
@@ -5689,7 +6334,7 @@
         <v>14.73</v>
       </c>
       <c r="I111" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
@@ -5722,7 +6367,7 @@
         <v>104</v>
       </c>
       <c r="I112" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.3">
@@ -5751,7 +6396,7 @@
         <v>6.79</v>
       </c>
       <c r="I113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.3">
@@ -5780,7 +6425,7 @@
         <v>65.739999999999995</v>
       </c>
       <c r="I114" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.3">
@@ -5809,7 +6454,7 @@
         <v>84.33</v>
       </c>
       <c r="I115" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.3">
@@ -5838,7 +6483,7 @@
         <v>43.13</v>
       </c>
       <c r="I116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.3">
@@ -5867,7 +6512,7 @@
         <v>4.93</v>
       </c>
       <c r="I117" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T117" s="7"/>
     </row>
@@ -5897,7 +6542,7 @@
         <v>123.72</v>
       </c>
       <c r="I118" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
@@ -5930,7 +6575,7 @@
         <v>64.58</v>
       </c>
       <c r="I119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.3">
@@ -5959,7 +6604,7 @@
         <v>38.090000000000003</v>
       </c>
       <c r="I120" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.3">
@@ -5988,7 +6633,7 @@
         <v>16.350000000000001</v>
       </c>
       <c r="I121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.3">
@@ -6017,7 +6662,7 @@
         <v>14.87</v>
       </c>
       <c r="I122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.3">
@@ -6047,13 +6692,13 @@
         <v>120.72</v>
       </c>
       <c r="I123" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.3">
@@ -6082,7 +6727,7 @@
         <v>123.71</v>
       </c>
       <c r="I124" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T124" s="7"/>
     </row>
@@ -6112,7 +6757,7 @@
         <v>54.52</v>
       </c>
       <c r="I125" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.3">
@@ -6141,13 +6786,13 @@
         <v>38.090000000000003</v>
       </c>
       <c r="I126" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K126" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.3">
@@ -6176,13 +6821,13 @@
         <v>3.99</v>
       </c>
       <c r="I127" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K127" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V127" s="7"/>
       <c r="W127" s="7"/>
@@ -6219,7 +6864,7 @@
         <v>7.98</v>
       </c>
       <c r="I128" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.3">
@@ -6248,7 +6893,7 @@
         <v>101.78</v>
       </c>
       <c r="I129" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.3">
@@ -6277,7 +6922,7 @@
         <v>82.9</v>
       </c>
       <c r="I130" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.3">
@@ -6306,7 +6951,7 @@
         <v>123.71</v>
       </c>
       <c r="I131" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.3">
@@ -6335,7 +6980,7 @@
         <v>8.3800000000000008</v>
       </c>
       <c r="I132" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.3">
@@ -6364,7 +7009,7 @@
         <v>51.52</v>
       </c>
       <c r="I133" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.3">
@@ -6393,7 +7038,7 @@
         <v>40.14</v>
       </c>
       <c r="I134" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V134" s="7"/>
       <c r="W134" s="7"/>
@@ -6430,7 +7075,7 @@
         <v>35.450000000000003</v>
       </c>
       <c r="I135" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.3">
@@ -6459,7 +7104,7 @@
         <v>5.53</v>
       </c>
       <c r="I136" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.3">
@@ -6488,7 +7133,7 @@
         <v>9.4</v>
       </c>
       <c r="I137" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.3">
@@ -6517,13 +7162,13 @@
         <v>10</v>
       </c>
       <c r="I138" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K138" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.3">
@@ -6552,7 +7197,7 @@
         <v>46.89</v>
       </c>
       <c r="I139" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.3">
@@ -6581,7 +7226,7 @@
         <v>82.9</v>
       </c>
       <c r="I140" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.3">
@@ -6610,10 +7255,10 @@
         <v>138.33000000000001</v>
       </c>
       <c r="I141" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K141" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.3">
@@ -6642,7 +7287,7 @@
         <v>72.38</v>
       </c>
       <c r="I142" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.3">
@@ -6671,7 +7316,7 @@
         <v>21.73</v>
       </c>
       <c r="I143" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.3">
@@ -6700,7 +7345,7 @@
         <v>63.22</v>
       </c>
       <c r="I144" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.3">
@@ -6729,7 +7374,7 @@
         <v>93.6</v>
       </c>
       <c r="I145" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.3">
@@ -6758,10 +7403,10 @@
         <v>62.63</v>
       </c>
       <c r="I146" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K146" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U146" s="7"/>
     </row>
@@ -6791,10 +7436,10 @@
         <v>74.98</v>
       </c>
       <c r="I147" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K147" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.3">
@@ -6823,10 +7468,10 @@
         <v>90.91</v>
       </c>
       <c r="I148" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K148" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6855,7 +7500,7 @@
         <v>14.69</v>
       </c>
       <c r="I149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J149"/>
       <c r="K149"/>
@@ -6904,7 +7549,7 @@
         <v>18.75</v>
       </c>
       <c r="I150" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.3">
@@ -6933,7 +7578,7 @@
         <v>33.729999999999997</v>
       </c>
       <c r="I151" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.3">
@@ -6962,7 +7607,7 @@
         <v>118.77</v>
       </c>
       <c r="I152" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.3">
@@ -6991,7 +7636,7 @@
         <v>43.28</v>
       </c>
       <c r="I153" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U153" s="7"/>
     </row>
@@ -7021,7 +7666,7 @@
         <v>104.77</v>
       </c>
       <c r="I154" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.3">
@@ -7050,7 +7695,7 @@
         <v>41.92</v>
       </c>
       <c r="I155" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="156" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7079,7 +7724,7 @@
         <v>4.45</v>
       </c>
       <c r="I156" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J156"/>
       <c r="K156"/>
@@ -7128,7 +7773,7 @@
         <v>8.39</v>
       </c>
       <c r="I157" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.3">
@@ -7157,7 +7802,7 @@
         <v>123.7</v>
       </c>
       <c r="I158" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.3">
@@ -7186,7 +7831,7 @@
         <v>91.08</v>
       </c>
       <c r="I159" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.3">
@@ -7267,13 +7912,13 @@
         <v>12</v>
       </c>
       <c r="G162">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H162" s="10">
         <v>39</v>
       </c>
       <c r="I162" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.3">
@@ -7302,7 +7947,7 @@
         <v>123.71</v>
       </c>
       <c r="I163" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.3">
@@ -7331,7 +7976,7 @@
         <v>9.82</v>
       </c>
       <c r="I164" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
@@ -7360,7 +8005,7 @@
         <v>96.36</v>
       </c>
       <c r="I165" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
@@ -7389,7 +8034,7 @@
         <v>123.71</v>
       </c>
       <c r="I166" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.3">
@@ -7418,7 +8063,7 @@
         <v>12.67</v>
       </c>
       <c r="I167" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P167" s="7"/>
       <c r="Q167" s="7"/>
@@ -7451,7 +8096,7 @@
         <v>9.6300000000000008</v>
       </c>
       <c r="I168" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P168" s="7"/>
       <c r="Q168" s="7"/>
@@ -7484,10 +8129,10 @@
         <v>123.71</v>
       </c>
       <c r="I169" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K169" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
@@ -7516,10 +8161,10 @@
         <v>39.11</v>
       </c>
       <c r="I170" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K170" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.3">
@@ -7548,7 +8193,7 @@
         <v>107.24</v>
       </c>
       <c r="I171" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
@@ -7577,7 +8222,7 @@
         <v>123.81</v>
       </c>
       <c r="I172" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
@@ -7606,7 +8251,7 @@
         <v>92.63</v>
       </c>
       <c r="I173" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T173" s="7"/>
     </row>
@@ -7636,7 +8281,7 @@
         <v>21.66</v>
       </c>
       <c r="I174" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T174" s="7"/>
     </row>
@@ -7666,7 +8311,7 @@
         <v>7.99</v>
       </c>
       <c r="I175" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P175" s="7"/>
       <c r="Q175" s="7"/>
@@ -7699,7 +8344,7 @@
         <v>123.71</v>
       </c>
       <c r="I176" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="177" spans="1:29" x14ac:dyDescent="0.3">
@@ -7728,7 +8373,7 @@
         <v>31.64</v>
       </c>
       <c r="I177" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="178" spans="1:29" x14ac:dyDescent="0.3">
@@ -7757,7 +8402,7 @@
         <v>7.87</v>
       </c>
       <c r="I178" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="179" spans="1:29" x14ac:dyDescent="0.3">
@@ -7786,7 +8431,7 @@
         <v>123.71</v>
       </c>
       <c r="I179" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="180" spans="1:29" x14ac:dyDescent="0.3">
@@ -7815,7 +8460,7 @@
         <v>123.71</v>
       </c>
       <c r="I180" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P180" s="8"/>
       <c r="Q180" s="8"/>
@@ -7848,7 +8493,7 @@
         <v>37.369999999999997</v>
       </c>
       <c r="I181" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T181" s="7"/>
     </row>
@@ -7878,7 +8523,7 @@
         <v>7.87</v>
       </c>
       <c r="I182" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P182" s="8"/>
       <c r="Q182" s="8"/>
@@ -7911,7 +8556,7 @@
         <v>104.77</v>
       </c>
       <c r="I183" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V183" s="7"/>
       <c r="W183" s="7"/>
@@ -7948,7 +8593,7 @@
         <v>104.77</v>
       </c>
       <c r="I184" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V184" s="7"/>
       <c r="W184" s="7"/>
@@ -7985,7 +8630,7 @@
         <v>33.03</v>
       </c>
       <c r="I185" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P185" s="8"/>
       <c r="Q185" s="8"/>
@@ -8018,7 +8663,7 @@
         <v>7.74</v>
       </c>
       <c r="I186" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T186" s="8"/>
     </row>
@@ -8048,7 +8693,7 @@
         <v>30.71</v>
       </c>
       <c r="I187" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="188" spans="1:29" x14ac:dyDescent="0.3">
@@ -8077,7 +8722,7 @@
         <v>31.6</v>
       </c>
       <c r="I188" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P188" s="7"/>
       <c r="Q188" s="7"/>
@@ -8111,7 +8756,7 @@
         <v>1.86</v>
       </c>
       <c r="I189" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="190" spans="1:29" x14ac:dyDescent="0.3">
@@ -8140,10 +8785,10 @@
         <v>29.69</v>
       </c>
       <c r="I190" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K190" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="191" spans="1:29" x14ac:dyDescent="0.3">
@@ -8172,7 +8817,7 @@
         <v>260</v>
       </c>
       <c r="I191" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T191" s="8"/>
       <c r="V191" s="7"/>
@@ -8210,7 +8855,7 @@
         <v>123.71</v>
       </c>
       <c r="I192" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="193" spans="1:29" x14ac:dyDescent="0.3">
@@ -8239,10 +8884,10 @@
         <v>71.84</v>
       </c>
       <c r="I193" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K193" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="194" spans="1:29" x14ac:dyDescent="0.3">
@@ -8271,7 +8916,7 @@
         <v>123.71</v>
       </c>
       <c r="I194" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T194" s="7"/>
     </row>
@@ -8301,7 +8946,7 @@
         <v>47.44</v>
       </c>
       <c r="I195" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="196" spans="1:29" x14ac:dyDescent="0.3">
@@ -8330,13 +8975,13 @@
         <v>99.1</v>
       </c>
       <c r="I196" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J196" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K196" t="s">
         <v>127</v>
-      </c>
-      <c r="K196" t="s">
-        <v>128</v>
       </c>
       <c r="P196" s="10"/>
       <c r="Q196" s="10"/>
@@ -8377,7 +9022,7 @@
         <v>97.2</v>
       </c>
       <c r="I197" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="198" spans="1:29" x14ac:dyDescent="0.3">
@@ -8406,7 +9051,7 @@
         <v>23.61</v>
       </c>
       <c r="I198" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V198" s="8"/>
       <c r="W198" s="8"/>
@@ -8443,7 +9088,7 @@
         <v>64.23</v>
       </c>
       <c r="I199" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="200" spans="1:29" x14ac:dyDescent="0.3">
@@ -8472,7 +9117,7 @@
         <v>123.71</v>
       </c>
       <c r="I200" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="201" spans="1:29" x14ac:dyDescent="0.3">
@@ -8501,7 +9146,7 @@
         <v>104.77</v>
       </c>
       <c r="I201" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V201" s="8"/>
       <c r="W201" s="8"/>
@@ -8538,7 +9183,7 @@
         <v>0.98</v>
       </c>
       <c r="I202" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T202" s="10"/>
       <c r="U202" s="7"/>
@@ -8569,7 +9214,7 @@
         <v>95.45</v>
       </c>
       <c r="I203" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U203" s="7"/>
     </row>
@@ -8599,13 +9244,13 @@
         <v>61.48</v>
       </c>
       <c r="I204" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J204" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K204" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V204" s="7"/>
       <c r="W204" s="7"/>
@@ -8642,7 +9287,7 @@
         <v>95.41</v>
       </c>
       <c r="I205" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J205"/>
       <c r="K205"/>
@@ -8691,13 +9336,13 @@
         <v>61.48</v>
       </c>
       <c r="I206" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J206" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K206" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V206" s="7"/>
       <c r="W206" s="7"/>
@@ -8734,7 +9379,7 @@
         <v>85.28</v>
       </c>
       <c r="I207" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="208" spans="1:29" x14ac:dyDescent="0.3">
@@ -8763,10 +9408,10 @@
         <v>30.74</v>
       </c>
       <c r="I208" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K208" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="209" spans="1:29" x14ac:dyDescent="0.3">
@@ -8795,7 +9440,7 @@
         <v>84.11</v>
       </c>
       <c r="I209" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="210" spans="1:29" x14ac:dyDescent="0.3">
@@ -8824,10 +9469,10 @@
         <v>17.649999999999999</v>
       </c>
       <c r="I210" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K210" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U210" s="7"/>
     </row>
@@ -8857,7 +9502,7 @@
         <v>30.7</v>
       </c>
       <c r="I211" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="212" spans="1:29" x14ac:dyDescent="0.3">
@@ -8886,7 +9531,7 @@
         <v>51.15</v>
       </c>
       <c r="I212" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V212" s="10"/>
       <c r="W212" s="10"/>
@@ -8923,7 +9568,7 @@
         <v>91</v>
       </c>
       <c r="I213" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J213"/>
       <c r="K213"/>
@@ -8972,10 +9617,10 @@
         <v>22.55</v>
       </c>
       <c r="I214" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K214" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="215" spans="1:29" x14ac:dyDescent="0.3">
@@ -9004,10 +9649,10 @@
         <v>260</v>
       </c>
       <c r="I215" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K215" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U215" s="8"/>
     </row>
@@ -9037,7 +9682,7 @@
         <v>4.88</v>
       </c>
       <c r="I216" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="217" spans="1:29" x14ac:dyDescent="0.3">
@@ -9066,7 +9711,7 @@
         <v>128.21</v>
       </c>
       <c r="I217" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U217" s="8"/>
     </row>
@@ -9096,7 +9741,7 @@
         <v>101.32</v>
       </c>
       <c r="I218" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J218"/>
       <c r="K218"/>
@@ -9145,7 +9790,7 @@
         <v>1.4</v>
       </c>
       <c r="I219" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="220" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9174,7 +9819,7 @@
         <v>6.29</v>
       </c>
       <c r="I220" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J220"/>
       <c r="K220"/>
@@ -9201,7 +9846,7 @@
         <v>44740</v>
       </c>
       <c r="B221" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="s">
         <v>18</v>
@@ -9218,11 +9863,11 @@
       <c r="G221">
         <v>4</v>
       </c>
-      <c r="H221" s="13">
+      <c r="H221">
         <v>11.31</v>
       </c>
       <c r="I221" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="222" spans="1:29" x14ac:dyDescent="0.3">
@@ -9251,7 +9896,7 @@
         <v>61.21</v>
       </c>
       <c r="I222" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="223" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -9280,7 +9925,7 @@
         <v>101.32</v>
       </c>
       <c r="I223" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J223"/>
       <c r="K223"/>
@@ -9329,7 +9974,7 @@
         <v>12.97</v>
       </c>
       <c r="I224" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="225" spans="1:29" x14ac:dyDescent="0.3">
@@ -9358,7 +10003,7 @@
         <v>26.34</v>
       </c>
       <c r="I225" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="226" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9387,7 +10032,7 @@
         <v>3.66</v>
       </c>
       <c r="I226" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J226"/>
       <c r="K226"/>
@@ -9436,7 +10081,7 @@
         <v>21.96</v>
       </c>
       <c r="I227" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="228" spans="1:29" x14ac:dyDescent="0.3">
@@ -9465,7 +10110,7 @@
         <v>64.63</v>
       </c>
       <c r="I228" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="229" spans="1:29" x14ac:dyDescent="0.3">
@@ -9494,7 +10139,7 @@
         <v>26.66</v>
       </c>
       <c r="I229" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:29" x14ac:dyDescent="0.3">
@@ -9523,13 +10168,13 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="I230" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J230" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K230" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="231" spans="1:29" x14ac:dyDescent="0.3">
@@ -9558,7 +10203,7 @@
         <v>51.09</v>
       </c>
       <c r="I231" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U231" s="10"/>
     </row>
@@ -9588,7 +10233,7 @@
         <v>52.55</v>
       </c>
       <c r="I232" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:29" x14ac:dyDescent="0.3">
@@ -9617,13 +10262,13 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="I233" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J233" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K233" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="234" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -9652,7 +10297,7 @@
         <v>29.87</v>
       </c>
       <c r="I234" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J234"/>
       <c r="K234"/>
@@ -9701,7 +10346,7 @@
         <v>127.78</v>
       </c>
       <c r="I235" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="236" spans="1:29" x14ac:dyDescent="0.3">
@@ -9730,7 +10375,7 @@
         <v>0.71</v>
       </c>
       <c r="I236" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237" spans="1:29" x14ac:dyDescent="0.3">
@@ -9759,7 +10404,7 @@
         <v>55.4</v>
       </c>
       <c r="I237" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="238" spans="1:29" x14ac:dyDescent="0.3">
@@ -9788,11 +10433,11 @@
         <v>101.53</v>
       </c>
       <c r="I238" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="239" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="14">
+      <c r="A239" s="13">
         <v>44755</v>
       </c>
       <c r="B239" s="10" t="s">
@@ -9817,16 +10462,16 @@
         <v>91.08</v>
       </c>
       <c r="I239" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J239" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K239" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="240" spans="1:29" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>44755</v>
       </c>
@@ -9852,11 +10497,11 @@
         <v>120.07</v>
       </c>
       <c r="I240" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="241" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="14">
+      <c r="A241" s="13">
         <v>44756</v>
       </c>
       <c r="B241" s="10" t="s">
@@ -9881,7 +10526,7 @@
         <v>91.08</v>
       </c>
       <c r="I241" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
@@ -9910,13 +10555,13 @@
         <v>5.26</v>
       </c>
       <c r="I242" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J242" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K242" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
@@ -9945,7 +10590,7 @@
         <v>91.08</v>
       </c>
       <c r="I243" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
@@ -9974,7 +10619,7 @@
         <v>55.56</v>
       </c>
       <c r="I244" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
@@ -10003,7 +10648,7 @@
         <v>9.85</v>
       </c>
       <c r="I245" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
@@ -10032,7 +10677,7 @@
         <v>5.25</v>
       </c>
       <c r="I246" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
@@ -10040,7 +10685,7 @@
         <v>44758</v>
       </c>
       <c r="B247" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="s">
         <v>2</v>
@@ -10061,7 +10706,7 @@
         <v>30.65</v>
       </c>
       <c r="I247" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
@@ -10090,11 +10735,2486 @@
         <v>94.26</v>
       </c>
       <c r="I248" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" s="3">
+        <v>44760</v>
+      </c>
+      <c r="B249" t="s">
+        <v>0</v>
+      </c>
+      <c r="C249" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249">
+        <v>4</v>
+      </c>
+      <c r="E249">
+        <v>55</v>
+      </c>
+      <c r="F249" t="s">
+        <v>13</v>
+      </c>
+      <c r="G249">
+        <v>21</v>
+      </c>
+      <c r="H249" s="10">
+        <v>79.94</v>
+      </c>
+      <c r="I249" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" s="3">
+        <v>44761</v>
+      </c>
+      <c r="B250" t="s">
+        <v>0</v>
+      </c>
+      <c r="C250" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250">
+        <v>4</v>
+      </c>
+      <c r="E250">
+        <v>55</v>
+      </c>
+      <c r="F250" t="s">
+        <v>13</v>
+      </c>
+      <c r="G250">
+        <v>21</v>
+      </c>
+      <c r="H250" s="10">
+        <v>120.07</v>
+      </c>
+      <c r="I250" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="3">
+        <v>44761</v>
+      </c>
+      <c r="B251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C251" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251">
+        <v>4</v>
+      </c>
+      <c r="E251">
+        <v>55</v>
+      </c>
+      <c r="F251" t="s">
+        <v>140</v>
+      </c>
+      <c r="G251">
+        <v>21</v>
+      </c>
+      <c r="H251" s="10">
+        <v>120.07</v>
+      </c>
+      <c r="I251" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="3">
+        <v>44761</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1</v>
+      </c>
+      <c r="C252" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252">
+        <v>4</v>
+      </c>
+      <c r="E252">
+        <v>54</v>
+      </c>
+      <c r="F252" t="s">
+        <v>12</v>
+      </c>
+      <c r="G252">
+        <v>18</v>
+      </c>
+      <c r="H252" s="10">
+        <v>82.9</v>
+      </c>
+      <c r="I252" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="3">
+        <v>44764</v>
+      </c>
+      <c r="B253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C253" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>4</v>
+      </c>
+      <c r="E253">
+        <v>55</v>
+      </c>
+      <c r="F253" t="s">
+        <v>140</v>
+      </c>
+      <c r="G253">
+        <v>21</v>
+      </c>
+      <c r="H253" s="10">
+        <v>120.07</v>
+      </c>
+      <c r="I253" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="3">
+        <v>44764</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254">
+        <v>4</v>
+      </c>
+      <c r="E254">
+        <v>54</v>
+      </c>
+      <c r="F254" t="s">
+        <v>12</v>
+      </c>
+      <c r="G254">
+        <v>18</v>
+      </c>
+      <c r="H254" s="10">
+        <v>82.9</v>
+      </c>
+      <c r="I254" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="3">
+        <v>44765</v>
+      </c>
+      <c r="B255" t="s">
+        <v>0</v>
+      </c>
+      <c r="C255" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255">
+        <v>4</v>
+      </c>
+      <c r="E255">
+        <v>55</v>
+      </c>
+      <c r="F255" t="s">
+        <v>13</v>
+      </c>
+      <c r="G255">
+        <v>21</v>
+      </c>
+      <c r="H255" s="10">
+        <v>99.47</v>
+      </c>
+      <c r="I255" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="3">
+        <v>44767</v>
+      </c>
+      <c r="B256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C256" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>4</v>
+      </c>
+      <c r="E256">
+        <v>56</v>
+      </c>
+      <c r="F256" t="s">
+        <v>13</v>
+      </c>
+      <c r="G256">
+        <v>21</v>
+      </c>
+      <c r="H256" s="10">
+        <v>62.96</v>
+      </c>
+      <c r="I256" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A257" s="3">
+        <v>44768</v>
+      </c>
+      <c r="B257" t="s">
+        <v>0</v>
+      </c>
+      <c r="C257" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257">
+        <v>4</v>
+      </c>
+      <c r="E257">
+        <v>56</v>
+      </c>
+      <c r="F257" t="s">
+        <v>13</v>
+      </c>
+      <c r="G257">
+        <v>21</v>
+      </c>
+      <c r="H257" s="10">
+        <v>6.37</v>
+      </c>
+      <c r="I257" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A258" s="3">
+        <v>44768</v>
+      </c>
+      <c r="B258" t="s">
+        <v>0</v>
+      </c>
+      <c r="C258" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258">
+        <v>4</v>
+      </c>
+      <c r="E258">
+        <v>55</v>
+      </c>
+      <c r="F258" t="s">
+        <v>140</v>
+      </c>
+      <c r="G258">
+        <v>21</v>
+      </c>
+      <c r="H258" s="10">
+        <v>120.07</v>
+      </c>
+      <c r="I258" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A259" s="3">
+        <v>44768</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259">
+        <v>4</v>
+      </c>
+      <c r="E259">
+        <v>54</v>
+      </c>
+      <c r="F259" t="s">
+        <v>12</v>
+      </c>
+      <c r="G259">
+        <v>18</v>
+      </c>
+      <c r="H259" s="10">
+        <v>82.9</v>
+      </c>
+      <c r="I259" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A260" s="3">
+        <v>44769</v>
+      </c>
+      <c r="B260" t="s">
+        <v>0</v>
+      </c>
+      <c r="C260" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260">
+        <v>4</v>
+      </c>
+      <c r="E260">
+        <v>55</v>
+      </c>
+      <c r="F260" t="s">
+        <v>140</v>
+      </c>
+      <c r="G260">
+        <v>21</v>
+      </c>
+      <c r="H260" s="10">
+        <v>120.07</v>
+      </c>
+      <c r="I260" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A261" s="3">
+        <v>44769</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
+        <v>2</v>
+      </c>
+      <c r="D261">
+        <v>4</v>
+      </c>
+      <c r="E261">
+        <v>54</v>
+      </c>
+      <c r="F261" t="s">
+        <v>12</v>
+      </c>
+      <c r="G261">
+        <v>18</v>
+      </c>
+      <c r="H261" s="10">
+        <v>82.9</v>
+      </c>
+      <c r="I261" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A262" s="3">
+        <v>44770</v>
+      </c>
+      <c r="B262" t="s">
+        <v>0</v>
+      </c>
+      <c r="C262" t="s">
+        <v>2</v>
+      </c>
+      <c r="D262">
+        <v>4</v>
+      </c>
+      <c r="E262">
+        <v>56</v>
+      </c>
+      <c r="F262" t="s">
+        <v>13</v>
+      </c>
+      <c r="G262">
+        <v>21</v>
+      </c>
+      <c r="H262" s="10">
+        <v>6.37</v>
+      </c>
+      <c r="I262" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A263" s="3">
+        <v>44770</v>
+      </c>
+      <c r="B263" t="s">
+        <v>0</v>
+      </c>
+      <c r="C263" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263">
+        <v>4</v>
+      </c>
+      <c r="E263">
+        <v>54</v>
+      </c>
+      <c r="F263" t="s">
+        <v>13</v>
+      </c>
+      <c r="G263">
+        <v>21</v>
+      </c>
+      <c r="H263" s="10">
+        <v>20.38</v>
+      </c>
+      <c r="I263" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A264" s="3">
+        <v>44770</v>
+      </c>
+      <c r="B264" t="s">
+        <v>0</v>
+      </c>
+      <c r="C264" t="s">
+        <v>2</v>
+      </c>
+      <c r="D264">
+        <v>4</v>
+      </c>
+      <c r="E264">
+        <v>56</v>
+      </c>
+      <c r="F264" t="s">
+        <v>13</v>
+      </c>
+      <c r="G264">
+        <v>21</v>
+      </c>
+      <c r="H264" s="10">
+        <v>4.34</v>
+      </c>
+      <c r="I264" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A265" s="3">
+        <v>44770</v>
+      </c>
+      <c r="B265" t="s">
+        <v>0</v>
+      </c>
+      <c r="C265" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265">
+        <v>4</v>
+      </c>
+      <c r="E265">
+        <v>54</v>
+      </c>
+      <c r="F265" t="s">
+        <v>13</v>
+      </c>
+      <c r="G265">
+        <v>21</v>
+      </c>
+      <c r="H265" s="10">
+        <v>24.98</v>
+      </c>
+      <c r="I265" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A266" s="3">
+        <v>44771</v>
+      </c>
+      <c r="B266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C266" t="s">
+        <v>2</v>
+      </c>
+      <c r="D266">
+        <v>4</v>
+      </c>
+      <c r="E266">
+        <v>57</v>
+      </c>
+      <c r="F266" t="s">
+        <v>13</v>
+      </c>
+      <c r="G266">
+        <v>21</v>
+      </c>
+      <c r="H266" s="10">
+        <v>28.54</v>
+      </c>
+      <c r="I266" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A267" s="3">
+        <v>44771</v>
+      </c>
+      <c r="B267" t="s">
+        <v>0</v>
+      </c>
+      <c r="C267" t="s">
+        <v>2</v>
+      </c>
+      <c r="D267">
+        <v>4</v>
+      </c>
+      <c r="E267">
+        <v>57</v>
+      </c>
+      <c r="F267" t="s">
+        <v>13</v>
+      </c>
+      <c r="G267">
+        <v>21</v>
+      </c>
+      <c r="H267" s="10">
+        <v>24.53</v>
+      </c>
+      <c r="I267" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A268" s="3">
+        <v>44771</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
+        <v>2</v>
+      </c>
+      <c r="D268">
+        <v>4</v>
+      </c>
+      <c r="E268">
+        <v>54</v>
+      </c>
+      <c r="F268" t="s">
+        <v>12</v>
+      </c>
+      <c r="G268">
+        <v>18</v>
+      </c>
+      <c r="H268">
+        <v>57.23</v>
+      </c>
+      <c r="I268" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A269" s="3">
+        <v>44774</v>
+      </c>
+      <c r="B269" t="s">
+        <v>0</v>
+      </c>
+      <c r="C269" t="s">
+        <v>2</v>
+      </c>
+      <c r="D269">
+        <v>4</v>
+      </c>
+      <c r="E269">
+        <v>57</v>
+      </c>
+      <c r="F269" t="s">
+        <v>13</v>
+      </c>
+      <c r="G269">
+        <v>21</v>
+      </c>
+      <c r="H269">
+        <v>28.54</v>
+      </c>
+      <c r="I269" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A270" s="3">
+        <v>44775</v>
+      </c>
+      <c r="B270" t="s">
+        <v>0</v>
+      </c>
+      <c r="C270" t="s">
+        <v>2</v>
+      </c>
+      <c r="D270">
+        <v>4</v>
+      </c>
+      <c r="E270">
+        <v>55</v>
+      </c>
+      <c r="F270" t="s">
+        <v>140</v>
+      </c>
+      <c r="G270">
+        <v>21</v>
+      </c>
+      <c r="H270" s="10">
+        <v>120.07</v>
+      </c>
+      <c r="I270" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A271" s="3">
+        <v>44775</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" t="s">
+        <v>2</v>
+      </c>
+      <c r="D271">
+        <v>4</v>
+      </c>
+      <c r="E271">
+        <v>54</v>
+      </c>
+      <c r="F271" t="s">
+        <v>12</v>
+      </c>
+      <c r="G271">
+        <v>18</v>
+      </c>
+      <c r="H271" s="10">
+        <v>82.9</v>
+      </c>
+      <c r="I271" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A272" s="3">
+        <v>44776</v>
+      </c>
+      <c r="B272" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272" t="s">
+        <v>2</v>
+      </c>
+      <c r="D272">
+        <v>4</v>
+      </c>
+      <c r="E272">
+        <v>57</v>
+      </c>
+      <c r="F272" t="s">
+        <v>13</v>
+      </c>
+      <c r="G272">
+        <v>21</v>
+      </c>
+      <c r="H272" s="10">
+        <v>54.89</v>
+      </c>
+      <c r="I272" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A273" s="3">
+        <v>44776</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" t="s">
+        <v>2</v>
+      </c>
+      <c r="D273">
+        <v>4</v>
+      </c>
+      <c r="E273">
+        <v>54</v>
+      </c>
+      <c r="F273" t="s">
+        <v>12</v>
+      </c>
+      <c r="G273">
+        <v>18</v>
+      </c>
+      <c r="H273" s="10">
+        <v>82.9</v>
+      </c>
+      <c r="I273" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A274" s="3">
+        <v>44777</v>
+      </c>
+      <c r="B274" t="s">
+        <v>0</v>
+      </c>
+      <c r="C274" t="s">
+        <v>2</v>
+      </c>
+      <c r="D274">
+        <v>4</v>
+      </c>
+      <c r="E274">
+        <v>55</v>
+      </c>
+      <c r="F274" t="s">
+        <v>140</v>
+      </c>
+      <c r="G274">
+        <v>21</v>
+      </c>
+      <c r="H274" s="10">
+        <v>120.07</v>
+      </c>
+      <c r="I274" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A275" s="3">
+        <v>44778</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1</v>
+      </c>
+      <c r="C275" t="s">
+        <v>18</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>2</v>
+      </c>
+      <c r="F275" t="s">
+        <v>12</v>
+      </c>
+      <c r="G275">
+        <v>4</v>
+      </c>
+      <c r="H275" s="10">
+        <v>27.13</v>
+      </c>
+      <c r="I275" t="s">
+        <v>73</v>
+      </c>
+      <c r="J275" t="s">
+        <v>70</v>
+      </c>
+      <c r="K275" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A276" s="3">
+        <v>44778</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" t="s">
+        <v>18</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>2</v>
+      </c>
+      <c r="F276" t="s">
+        <v>12</v>
+      </c>
+      <c r="G276">
+        <v>4</v>
+      </c>
+      <c r="H276" s="10">
+        <v>27.13</v>
+      </c>
+      <c r="I276" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A277" s="3">
+        <v>44781</v>
+      </c>
+      <c r="B277" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" t="s">
+        <v>2</v>
+      </c>
+      <c r="D277">
+        <v>4</v>
+      </c>
+      <c r="E277">
+        <v>57</v>
+      </c>
+      <c r="F277" t="s">
+        <v>13</v>
+      </c>
+      <c r="G277">
+        <v>21</v>
+      </c>
+      <c r="H277" s="10">
+        <v>62.64</v>
+      </c>
+      <c r="I277" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A278" s="3">
+        <v>44781</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" t="s">
+        <v>3</v>
+      </c>
+      <c r="D278">
+        <v>2</v>
+      </c>
+      <c r="E278">
+        <v>8</v>
+      </c>
+      <c r="F278" t="s">
+        <v>12</v>
+      </c>
+      <c r="G278">
+        <v>15</v>
+      </c>
+      <c r="H278" s="10">
+        <v>78.73</v>
+      </c>
+      <c r="I278" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A279" s="3">
+        <v>44782</v>
+      </c>
+      <c r="B279" t="s">
+        <v>0</v>
+      </c>
+      <c r="C279" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279">
+        <v>4</v>
+      </c>
+      <c r="E279">
+        <v>57</v>
+      </c>
+      <c r="F279" t="s">
+        <v>13</v>
+      </c>
+      <c r="G279">
+        <v>21</v>
+      </c>
+      <c r="H279" s="10">
+        <v>5.18</v>
+      </c>
+      <c r="I279" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A280" s="3">
+        <v>44782</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" t="s">
+        <v>3</v>
+      </c>
+      <c r="D280">
+        <v>2</v>
+      </c>
+      <c r="E280">
+        <v>8</v>
+      </c>
+      <c r="F280" t="s">
+        <v>12</v>
+      </c>
+      <c r="G280">
+        <v>16</v>
+      </c>
+      <c r="H280" s="10">
+        <v>260</v>
+      </c>
+      <c r="I280" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A281" s="3">
+        <v>44783</v>
+      </c>
+      <c r="B281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C281" t="s">
+        <v>2</v>
+      </c>
+      <c r="D281">
+        <v>4</v>
+      </c>
+      <c r="E281">
+        <v>57</v>
+      </c>
+      <c r="F281" t="s">
+        <v>13</v>
+      </c>
+      <c r="G281">
+        <v>21</v>
+      </c>
+      <c r="H281" s="10">
+        <v>11.83</v>
+      </c>
+      <c r="I281" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A282" s="3">
+        <v>44789</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282" t="s">
+        <v>18</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>2</v>
+      </c>
+      <c r="F282" t="s">
+        <v>12</v>
+      </c>
+      <c r="G282">
+        <v>4</v>
+      </c>
+      <c r="H282" s="10">
+        <v>49.79</v>
+      </c>
+      <c r="I282" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A283" s="3">
+        <v>44789</v>
+      </c>
+      <c r="B283" t="s">
+        <v>0</v>
+      </c>
+      <c r="C283" t="s">
+        <v>2</v>
+      </c>
+      <c r="D283">
+        <v>4</v>
+      </c>
+      <c r="E283">
+        <v>57</v>
+      </c>
+      <c r="F283" t="s">
+        <v>13</v>
+      </c>
+      <c r="G283">
+        <v>21</v>
+      </c>
+      <c r="H283" s="10">
+        <v>30.48</v>
+      </c>
+      <c r="I283" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A284" s="3">
+        <v>44790</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" t="s">
+        <v>2</v>
+      </c>
+      <c r="D284">
+        <v>2</v>
+      </c>
+      <c r="E284">
+        <v>56</v>
+      </c>
+      <c r="F284" t="s">
+        <v>12</v>
+      </c>
+      <c r="G284">
+        <v>18</v>
+      </c>
+      <c r="H284" s="10">
+        <v>13.17</v>
+      </c>
+      <c r="I284" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A285" s="3">
+        <v>44790</v>
+      </c>
+      <c r="B285" t="s">
+        <v>0</v>
+      </c>
+      <c r="C285" t="s">
+        <v>2</v>
+      </c>
+      <c r="D285">
+        <v>4</v>
+      </c>
+      <c r="E285">
+        <v>57</v>
+      </c>
+      <c r="F285" t="s">
+        <v>13</v>
+      </c>
+      <c r="G285">
+        <v>21</v>
+      </c>
+      <c r="H285" s="10">
+        <v>30.48</v>
+      </c>
+      <c r="I285" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A286" s="3">
+        <v>44791</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" t="s">
+        <v>2</v>
+      </c>
+      <c r="D286">
+        <v>2</v>
+      </c>
+      <c r="E286">
+        <v>56</v>
+      </c>
+      <c r="F286" t="s">
+        <v>12</v>
+      </c>
+      <c r="G286">
+        <v>18</v>
+      </c>
+      <c r="H286" s="10">
+        <v>13.72</v>
+      </c>
+      <c r="I286" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A287" s="3">
+        <v>44795</v>
+      </c>
+      <c r="B287" t="s">
+        <v>0</v>
+      </c>
+      <c r="C287" t="s">
+        <v>2</v>
+      </c>
+      <c r="D287">
+        <v>4</v>
+      </c>
+      <c r="E287">
+        <v>57</v>
+      </c>
+      <c r="F287" t="s">
+        <v>13</v>
+      </c>
+      <c r="G287">
+        <v>21</v>
+      </c>
+      <c r="H287" s="10">
+        <v>99.76</v>
+      </c>
+      <c r="I287" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A288" s="3">
+        <v>44797</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288" t="s">
+        <v>3</v>
+      </c>
+      <c r="D288">
+        <v>2</v>
+      </c>
+      <c r="E288">
+        <v>8</v>
+      </c>
+      <c r="F288" t="s">
+        <v>12</v>
+      </c>
+      <c r="G288">
+        <v>16</v>
+      </c>
+      <c r="H288" s="10">
+        <v>59.86</v>
+      </c>
+      <c r="I288" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A289" s="3">
+        <v>44798</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" t="s">
+        <v>2</v>
+      </c>
+      <c r="D289">
+        <v>2</v>
+      </c>
+      <c r="E289">
+        <v>54</v>
+      </c>
+      <c r="F289" t="s">
+        <v>12</v>
+      </c>
+      <c r="G289">
+        <v>18</v>
+      </c>
+      <c r="H289" s="10">
+        <v>34.92</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A290" s="3">
+        <v>44798</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" t="s">
+        <v>18</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>2</v>
+      </c>
+      <c r="F290" t="s">
+        <v>12</v>
+      </c>
+      <c r="G290">
+        <v>4</v>
+      </c>
+      <c r="H290" s="10">
+        <v>99</v>
+      </c>
+      <c r="I290" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A291" s="3">
+        <v>44802</v>
+      </c>
+      <c r="B291" t="s">
+        <v>0</v>
+      </c>
+      <c r="C291" t="s">
+        <v>2</v>
+      </c>
+      <c r="D291">
+        <v>4</v>
+      </c>
+      <c r="E291">
+        <v>57</v>
+      </c>
+      <c r="F291" t="s">
+        <v>13</v>
+      </c>
+      <c r="G291">
+        <v>21</v>
+      </c>
+      <c r="H291" s="10">
+        <v>12.05</v>
+      </c>
+      <c r="I291" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A292" s="3">
+        <v>44802</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" t="s">
+        <v>2</v>
+      </c>
+      <c r="D292">
+        <v>4</v>
+      </c>
+      <c r="E292">
+        <v>58</v>
+      </c>
+      <c r="F292" t="s">
+        <v>12</v>
+      </c>
+      <c r="G292">
+        <v>18</v>
+      </c>
+      <c r="H292" s="10">
+        <v>12.46</v>
+      </c>
+      <c r="I292" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A293" s="3">
+        <v>44802</v>
+      </c>
+      <c r="B293" t="s">
+        <v>0</v>
+      </c>
+      <c r="C293" t="s">
+        <v>18</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293">
+        <v>4</v>
+      </c>
+      <c r="F293" t="s">
+        <v>13</v>
+      </c>
+      <c r="G293">
+        <v>5</v>
+      </c>
+      <c r="H293" s="10">
+        <v>260</v>
+      </c>
+      <c r="I293" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A294" s="3">
+        <v>44802</v>
+      </c>
+      <c r="B294" t="s">
+        <v>0</v>
+      </c>
+      <c r="C294" t="s">
+        <v>18</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>4</v>
+      </c>
+      <c r="F294" t="s">
+        <v>13</v>
+      </c>
+      <c r="G294">
+        <v>5</v>
+      </c>
+      <c r="H294" s="10">
+        <v>104.58</v>
+      </c>
+      <c r="I294" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A295" s="3">
+        <v>44802</v>
+      </c>
+      <c r="B295" t="s">
+        <v>0</v>
+      </c>
+      <c r="C295" t="s">
+        <v>18</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295">
+        <v>4</v>
+      </c>
+      <c r="F295" t="s">
+        <v>13</v>
+      </c>
+      <c r="G295">
+        <v>5</v>
+      </c>
+      <c r="H295" s="10">
+        <v>17.43</v>
+      </c>
+      <c r="I295" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A296" s="3">
+        <v>44803</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" t="s">
+        <v>2</v>
+      </c>
+      <c r="D296">
+        <v>4</v>
+      </c>
+      <c r="E296">
+        <v>58</v>
+      </c>
+      <c r="F296" t="s">
+        <v>12</v>
+      </c>
+      <c r="G296">
+        <v>18</v>
+      </c>
+      <c r="H296" s="10">
+        <v>6.19</v>
+      </c>
+      <c r="I296" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A297" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" t="s">
+        <v>2</v>
+      </c>
+      <c r="D297">
+        <v>4</v>
+      </c>
+      <c r="E297">
+        <v>58</v>
+      </c>
+      <c r="F297" t="s">
+        <v>12</v>
+      </c>
+      <c r="G297">
+        <v>18</v>
+      </c>
+      <c r="H297" s="14">
+        <v>30.76</v>
+      </c>
+      <c r="I297" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A298" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1</v>
+      </c>
+      <c r="C298" t="s">
+        <v>2</v>
+      </c>
+      <c r="D298">
+        <v>4</v>
+      </c>
+      <c r="E298">
+        <v>58</v>
+      </c>
+      <c r="F298" t="s">
+        <v>12</v>
+      </c>
+      <c r="G298">
+        <v>18</v>
+      </c>
+      <c r="H298" s="14">
+        <v>3.06</v>
+      </c>
+      <c r="I298" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A299" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B299" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299" t="s">
+        <v>18</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+      <c r="E299">
+        <v>4</v>
+      </c>
+      <c r="F299" t="s">
+        <v>13</v>
+      </c>
+      <c r="G299">
+        <v>5</v>
+      </c>
+      <c r="H299" s="10">
+        <v>142.06</v>
+      </c>
+      <c r="I299" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A300" s="3">
+        <v>44805</v>
+      </c>
+      <c r="B300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+      <c r="E300">
+        <v>4</v>
+      </c>
+      <c r="F300" t="s">
+        <v>13</v>
+      </c>
+      <c r="G300">
+        <v>5</v>
+      </c>
+      <c r="H300" s="10">
+        <v>155.81</v>
+      </c>
+      <c r="I300" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A301" s="3">
+        <v>44810</v>
+      </c>
+      <c r="B301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" t="s">
+        <v>18</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>4</v>
+      </c>
+      <c r="F301" t="s">
+        <v>13</v>
+      </c>
+      <c r="G301">
+        <v>5</v>
+      </c>
+      <c r="H301" s="10">
+        <v>25.94</v>
+      </c>
+      <c r="I301" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A302" s="3">
+        <v>44810</v>
+      </c>
+      <c r="B302" t="s">
+        <v>0</v>
+      </c>
+      <c r="C302" t="s">
+        <v>18</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+      <c r="E302">
+        <v>3</v>
+      </c>
+      <c r="F302" t="s">
+        <v>13</v>
+      </c>
+      <c r="G302">
+        <v>5</v>
+      </c>
+      <c r="H302" s="10">
+        <v>130.72</v>
+      </c>
+      <c r="I302" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A303" s="3">
+        <v>44810</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" t="s">
+        <v>2</v>
+      </c>
+      <c r="D303">
+        <v>4</v>
+      </c>
+      <c r="E303">
+        <v>58</v>
+      </c>
+      <c r="F303" t="s">
+        <v>12</v>
+      </c>
+      <c r="G303">
+        <v>18</v>
+      </c>
+      <c r="H303" s="10">
+        <v>82.9</v>
+      </c>
+      <c r="I303" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A304" s="3">
+        <v>44811</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" t="s">
+        <v>3</v>
+      </c>
+      <c r="D304">
+        <v>2</v>
+      </c>
+      <c r="E304">
+        <v>8</v>
+      </c>
+      <c r="F304" t="s">
+        <v>12</v>
+      </c>
+      <c r="G304">
+        <v>17</v>
+      </c>
+      <c r="H304" s="10">
+        <v>39.11</v>
+      </c>
+      <c r="I304" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A305" s="3">
+        <v>44812</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" t="s">
+        <v>3</v>
+      </c>
+      <c r="D305">
+        <v>2</v>
+      </c>
+      <c r="E305">
+        <v>8</v>
+      </c>
+      <c r="F305" t="s">
+        <v>12</v>
+      </c>
+      <c r="G305">
+        <v>17</v>
+      </c>
+      <c r="H305" s="10">
+        <v>39.11</v>
+      </c>
+      <c r="I305" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A306" s="3">
+        <v>44812</v>
+      </c>
+      <c r="B306" t="s">
+        <v>0</v>
+      </c>
+      <c r="C306" t="s">
+        <v>18</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="E306">
+        <v>3</v>
+      </c>
+      <c r="F306" t="s">
+        <v>13</v>
+      </c>
+      <c r="G306">
+        <v>5</v>
+      </c>
+      <c r="H306" s="10">
+        <v>130.72</v>
+      </c>
+      <c r="I306" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A307" s="3">
+        <v>44813</v>
+      </c>
+      <c r="B307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307" t="s">
+        <v>18</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+      <c r="E307">
+        <v>3</v>
+      </c>
+      <c r="F307" t="s">
+        <v>13</v>
+      </c>
+      <c r="G307">
+        <v>5</v>
+      </c>
+      <c r="H307" s="10">
+        <v>21.05</v>
+      </c>
+      <c r="I307" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A308" s="3">
+        <v>44813</v>
+      </c>
+      <c r="B308" t="s">
+        <v>0</v>
+      </c>
+      <c r="C308" t="s">
+        <v>18</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+      <c r="E308">
+        <v>3</v>
+      </c>
+      <c r="F308" t="s">
+        <v>13</v>
+      </c>
+      <c r="G308">
+        <v>5</v>
+      </c>
+      <c r="H308" s="10">
+        <v>135.6</v>
+      </c>
+      <c r="I308" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A309" s="3">
+        <v>44816</v>
+      </c>
+      <c r="B309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C309" t="s">
+        <v>18</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+      <c r="E309">
+        <v>3</v>
+      </c>
+      <c r="F309" t="s">
+        <v>13</v>
+      </c>
+      <c r="G309">
+        <v>5</v>
+      </c>
+      <c r="H309" s="10">
+        <v>131.51</v>
+      </c>
+      <c r="I309" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A310" s="3">
+        <v>44816</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" t="s">
+        <v>2</v>
+      </c>
+      <c r="D310">
+        <v>4</v>
+      </c>
+      <c r="E310">
+        <v>58</v>
+      </c>
+      <c r="F310" t="s">
+        <v>12</v>
+      </c>
+      <c r="G310">
+        <v>21</v>
+      </c>
+      <c r="H310" s="10">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="I310" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A311" s="3">
+        <v>44817</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1</v>
+      </c>
+      <c r="C311" t="s">
+        <v>2</v>
+      </c>
+      <c r="D311">
+        <v>4</v>
+      </c>
+      <c r="E311">
+        <v>58</v>
+      </c>
+      <c r="F311" t="s">
+        <v>12</v>
+      </c>
+      <c r="G311">
+        <v>21</v>
+      </c>
+      <c r="H311" s="10">
+        <v>67.97</v>
+      </c>
+      <c r="I311" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A312" s="3">
+        <v>44817</v>
+      </c>
+      <c r="B312" t="s">
+        <v>0</v>
+      </c>
+      <c r="C312" t="s">
+        <v>18</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+      <c r="E312">
+        <v>3</v>
+      </c>
+      <c r="F312" t="s">
+        <v>13</v>
+      </c>
+      <c r="G312">
+        <v>5</v>
+      </c>
+      <c r="H312" s="10">
+        <v>135.6</v>
+      </c>
+      <c r="I312" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A313" s="3">
+        <v>44818</v>
+      </c>
+      <c r="B313" t="s">
+        <v>0</v>
+      </c>
+      <c r="C313" t="s">
+        <v>18</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+      <c r="E313">
+        <v>3</v>
+      </c>
+      <c r="F313" t="s">
+        <v>13</v>
+      </c>
+      <c r="G313">
+        <v>5</v>
+      </c>
+      <c r="H313" s="10">
+        <v>126.96</v>
+      </c>
+      <c r="I313" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A314" s="3">
+        <v>44820</v>
+      </c>
+      <c r="B314" t="s">
+        <v>0</v>
+      </c>
+      <c r="C314" t="s">
+        <v>2</v>
+      </c>
+      <c r="D314">
+        <v>4</v>
+      </c>
+      <c r="E314">
+        <v>59</v>
+      </c>
+      <c r="F314" t="s">
+        <v>13</v>
+      </c>
+      <c r="G314">
+        <v>22</v>
+      </c>
+      <c r="H314" s="10">
+        <v>117.62</v>
+      </c>
+      <c r="I314" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A315" s="3">
+        <v>44823</v>
+      </c>
+      <c r="B315" t="s">
+        <v>0</v>
+      </c>
+      <c r="C315" t="s">
+        <v>18</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+      <c r="E315">
+        <v>4</v>
+      </c>
+      <c r="F315" t="s">
+        <v>13</v>
+      </c>
+      <c r="G315">
+        <v>5</v>
+      </c>
+      <c r="H315" s="10">
+        <v>126.87</v>
+      </c>
+      <c r="I315" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A316" s="3">
+        <v>44823</v>
+      </c>
+      <c r="B316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C316" t="s">
+        <v>18</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+      <c r="E316">
+        <v>4</v>
+      </c>
+      <c r="F316" t="s">
+        <v>13</v>
+      </c>
+      <c r="G316">
+        <v>5</v>
+      </c>
+      <c r="H316" s="10">
+        <v>126.87</v>
+      </c>
+      <c r="I316" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A317" s="3">
+        <v>44824</v>
+      </c>
+      <c r="B317" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317" t="s">
+        <v>18</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+      <c r="E317">
+        <v>4</v>
+      </c>
+      <c r="F317" t="s">
+        <v>13</v>
+      </c>
+      <c r="G317">
+        <v>5</v>
+      </c>
+      <c r="H317" s="10">
+        <v>126.87</v>
+      </c>
+      <c r="I317" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A318" s="3">
+        <v>44826</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1</v>
+      </c>
+      <c r="C318" t="s">
+        <v>3</v>
+      </c>
+      <c r="D318">
+        <v>2</v>
+      </c>
+      <c r="E318">
+        <v>8</v>
+      </c>
+      <c r="F318" t="s">
+        <v>12</v>
+      </c>
+      <c r="G318">
+        <v>17</v>
+      </c>
+      <c r="H318" s="10">
+        <v>119.18</v>
+      </c>
+      <c r="I318" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A319" s="3">
+        <v>44826</v>
+      </c>
+      <c r="B319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C319" t="s">
+        <v>18</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+      <c r="E319">
+        <v>4</v>
+      </c>
+      <c r="F319" t="s">
+        <v>13</v>
+      </c>
+      <c r="G319">
+        <v>5</v>
+      </c>
+      <c r="H319" s="10">
+        <v>144.38</v>
+      </c>
+      <c r="I319" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A320" s="3">
+        <v>44826</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1</v>
+      </c>
+      <c r="C320" t="s">
+        <v>3</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+      <c r="E320">
+        <v>8</v>
+      </c>
+      <c r="F320" t="s">
+        <v>12</v>
+      </c>
+      <c r="G320">
+        <v>17</v>
+      </c>
+      <c r="H320" s="10">
+        <v>104.83</v>
+      </c>
+      <c r="I320" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A321" s="3">
+        <v>44827</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1</v>
+      </c>
+      <c r="C321" t="s">
+        <v>3</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+      <c r="E321">
+        <v>8</v>
+      </c>
+      <c r="F321" t="s">
+        <v>12</v>
+      </c>
+      <c r="G321">
+        <v>17</v>
+      </c>
+      <c r="H321" s="10">
+        <v>78.83</v>
+      </c>
+      <c r="I321" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A322" s="3">
+        <v>44827</v>
+      </c>
+      <c r="B322" t="s">
+        <v>0</v>
+      </c>
+      <c r="C322" t="s">
+        <v>2</v>
+      </c>
+      <c r="D322">
+        <v>4</v>
+      </c>
+      <c r="E322">
+        <v>58</v>
+      </c>
+      <c r="F322" t="s">
+        <v>13</v>
+      </c>
+      <c r="G322">
+        <v>20</v>
+      </c>
+      <c r="H322" s="10">
+        <v>104.83</v>
+      </c>
+      <c r="I322" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A323" s="3">
+        <v>44828</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1</v>
+      </c>
+      <c r="C323" t="s">
+        <v>3</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323">
+        <v>8</v>
+      </c>
+      <c r="F323" t="s">
+        <v>12</v>
+      </c>
+      <c r="G323">
+        <v>17</v>
+      </c>
+      <c r="H323" s="10">
+        <v>78</v>
+      </c>
+      <c r="I323" t="s">
+        <v>73</v>
+      </c>
+      <c r="J323" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K323" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A324" s="3">
+        <v>44830</v>
+      </c>
+      <c r="B324" t="s">
+        <v>0</v>
+      </c>
+      <c r="C324" t="s">
+        <v>18</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+      <c r="E324">
+        <v>4</v>
+      </c>
+      <c r="F324" t="s">
+        <v>13</v>
+      </c>
+      <c r="G324">
+        <v>5</v>
+      </c>
+      <c r="H324" s="10">
+        <v>155.34</v>
+      </c>
+      <c r="I324" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A325" s="3">
+        <v>44831</v>
+      </c>
+      <c r="B325" t="s">
+        <v>0</v>
+      </c>
+      <c r="C325" t="s">
+        <v>18</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+      <c r="E325">
+        <v>4</v>
+      </c>
+      <c r="F325" t="s">
+        <v>13</v>
+      </c>
+      <c r="G325">
+        <v>5</v>
+      </c>
+      <c r="H325" s="10">
+        <v>135.19</v>
+      </c>
+      <c r="I325" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A326" s="3">
+        <v>44832</v>
+      </c>
+      <c r="B326" t="s">
+        <v>0</v>
+      </c>
+      <c r="C326" t="s">
+        <v>18</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+      <c r="E326">
+        <v>5</v>
+      </c>
+      <c r="F326" t="s">
+        <v>13</v>
+      </c>
+      <c r="G326">
+        <v>5</v>
+      </c>
+      <c r="H326" s="10">
+        <v>132.87</v>
+      </c>
+      <c r="I326" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A327" s="3">
+        <v>44833</v>
+      </c>
+      <c r="B327" t="s">
+        <v>0</v>
+      </c>
+      <c r="C327" t="s">
+        <v>18</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+      <c r="E327">
+        <v>5</v>
+      </c>
+      <c r="F327" t="s">
+        <v>13</v>
+      </c>
+      <c r="G327">
+        <v>5</v>
+      </c>
+      <c r="H327" s="10">
+        <v>111.01</v>
+      </c>
+      <c r="I327" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A328" s="3">
+        <v>44834</v>
+      </c>
+      <c r="B328" t="s">
+        <v>0</v>
+      </c>
+      <c r="C328" t="s">
+        <v>18</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+      <c r="E328">
+        <v>5</v>
+      </c>
+      <c r="F328" t="s">
+        <v>13</v>
+      </c>
+      <c r="G328">
+        <v>5</v>
+      </c>
+      <c r="H328" s="10">
+        <v>122.35</v>
+      </c>
+      <c r="I328" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A329" s="3">
+        <v>44837</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1</v>
+      </c>
+      <c r="C329" t="s">
+        <v>2</v>
+      </c>
+      <c r="D329">
+        <v>4</v>
+      </c>
+      <c r="E329">
+        <v>58</v>
+      </c>
+      <c r="F329" t="s">
+        <v>12</v>
+      </c>
+      <c r="G329">
+        <v>22</v>
+      </c>
+      <c r="H329" s="10">
+        <v>27.67</v>
+      </c>
+      <c r="I329" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A330" s="3">
+        <v>44837</v>
+      </c>
+      <c r="B330" t="s">
+        <v>0</v>
+      </c>
+      <c r="C330" t="s">
+        <v>18</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <v>5</v>
+      </c>
+      <c r="F330" t="s">
+        <v>13</v>
+      </c>
+      <c r="G330">
+        <v>5</v>
+      </c>
+      <c r="H330" s="10">
+        <v>49.97</v>
+      </c>
+      <c r="I330" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A331" s="3">
+        <v>44837</v>
+      </c>
+      <c r="B331" t="s">
+        <v>0</v>
+      </c>
+      <c r="C331" t="s">
+        <v>18</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+      <c r="E331">
+        <v>5</v>
+      </c>
+      <c r="F331" t="s">
+        <v>13</v>
+      </c>
+      <c r="G331">
+        <v>5</v>
+      </c>
+      <c r="H331" s="10">
+        <v>64.92</v>
+      </c>
+      <c r="I331" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A332" s="3">
+        <v>44839</v>
+      </c>
+      <c r="B332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C332" t="s">
+        <v>18</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+      <c r="E332">
+        <v>5</v>
+      </c>
+      <c r="F332" t="s">
+        <v>13</v>
+      </c>
+      <c r="G332">
+        <v>5</v>
+      </c>
+      <c r="H332" s="10">
+        <v>39.14</v>
+      </c>
+      <c r="I332" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A333" s="3">
+        <v>44840</v>
+      </c>
+      <c r="B333" t="s">
+        <v>0</v>
+      </c>
+      <c r="C333" t="s">
+        <v>18</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+      <c r="E333">
+        <v>5</v>
+      </c>
+      <c r="F333" t="s">
+        <v>13</v>
+      </c>
+      <c r="G333">
+        <v>5</v>
+      </c>
+      <c r="H333" s="10">
+        <v>89.33</v>
+      </c>
+      <c r="I333" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AB3 AA227:AA240 AA324:AA1048576 AA1:AA205 AA207:AA225 AA242:AA322">
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="AB3 AA227:AA240 AA325:AA1048576 AA207:AA225 AA242:AA323 AA1:AA17 AB16:AB17 AA26:AA205 AA18:AB25">
     <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"Replaced"</formula>
     </cfRule>
@@ -10113,7 +13233,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R308:R1048576 R38:R205 R1:R15 R207:R240 R242:R306">
+  <conditionalFormatting sqref="R309:R1048576 R48:R205 R1:R15 R207:R240 R242:R307">
     <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"Replaced"</formula>
     </cfRule>
@@ -10124,7 +13244,7 @@
       <formula>"Cartridge OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R16:R37">
+  <conditionalFormatting sqref="R16:R47">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Replaced"</formula>
     </cfRule>
@@ -10180,25 +13300,25 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X324:X1048576 AF346:AF1048576 AF249:AF344 X1:X11 X13:X225 X227:X322 O1:O1048576 AF1:AF247 C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X325:X1048576 AF347:AF1048576 X1:X11 C2:C1048576 AF1:AF247 AF249:AF345 O1:O1048576 X227:X323 X13:X225" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Resins</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W324:W1048576 W1:W11 W13:W225 W227:W322 F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W325:W1048576 W1:W11 F1:F1048576 W227:W323 V28 W13:W27 W29:W225" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Tanks</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576 E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y325:Y1048576 P309:P1048576 Y1:Y11 P1:P209 D1:D1048576 Y227:Y323 P211:P307 Y13:Y225" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>Version</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V325:V1048576 V1:V11 G1:G1048576 V227:V323 W28 V13:V27 V29:V225" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>TankID</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576 E2:E1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>CartridgeID</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y324:Y1048576 P308:P1048576 Y1:Y11 P1:P209 Y13:Y225 Y227:Y322 P211:P306 D1:D1048576">
-      <formula1>Version</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V324:V1048576 V1:V11 V13:V225 V227:V322 G1:G1048576">
-      <formula1>TankID</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid printer" error="Select existing printer or add new printer in Parameters sheet" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid printer" error="Select existing printer or add new printer in Parameters sheet" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Printers</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>YesNo</formula1>
     </dataValidation>
   </dataValidations>
@@ -10208,151 +13328,151 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -10365,7 +13485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10373,7 +13493,7 @@
       <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
@@ -10620,7 +13740,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -11231,14 +14351,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.88671875" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" customWidth="1"/>
@@ -11253,77 +14373,77 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4">
         <v>44440</v>
       </c>
       <c r="C2" s="4">
-        <v>44692</v>
+        <v>44830</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="C3" s="4">
-        <v>44692</v>
+        <v>44805</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="4">
         <v>44440</v>
       </c>
       <c r="C4" s="4">
-        <v>44629</v>
+        <v>44830</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="4">
         <v>44440</v>
       </c>
       <c r="C5" s="4">
-        <v>44692</v>
+        <v>44830</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="4">
-        <v>44659</v>
+        <v>44830</v>
       </c>
       <c r="C6" s="4">
-        <v>44721</v>
+        <v>44830</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
